--- a/data_tekno/LAPORAN PENGHASILAN TECHNOPARK.xlsx
+++ b/data_tekno/LAPORAN PENGHASILAN TECHNOPARK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REKAP DATA BARANG TEKHNOPARK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tekno\data_tekno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12FE1C8-95BA-49C9-AD71-6BE3A90096AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F672F-55B6-4687-A3A1-ECB97B3B5E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{EC75EE06-ED53-42AA-910B-3D4DCA65C02B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC75EE06-ED53-42AA-910B-3D4DCA65C02B}"/>
   </bookViews>
   <sheets>
     <sheet name="TJKT" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="220">
   <si>
     <t>NO</t>
   </si>
@@ -116,9 +116,6 @@
     <t>TANG CRIMPING TOOLS</t>
   </si>
   <si>
-    <t>TEKHNIK KOMPUTER JARINGAN DAN TELEKOMUNIKASI</t>
-  </si>
-  <si>
     <t>Set Meja makan</t>
   </si>
   <si>
@@ -326,13 +323,7 @@
     <t>LAMPU TIDUR 150X150X300 MM</t>
   </si>
   <si>
-    <t>KONSENTRASI KEAHLIAN TEKHNIK FURNITURE</t>
-  </si>
-  <si>
     <t>TEKHNIK FURNITURE SMKN 2 BANJARMASIN</t>
-  </si>
-  <si>
-    <t>KONSENTRASI KEAHLIAN ANIMASI</t>
   </si>
   <si>
     <t>KONSENTRASI KEAHLIAN TEKHNIK KIMIA INDUSTRI</t>
@@ -718,8 +709,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1036,7 +1027,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="100">
@@ -1049,15 +1040,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,7 +1070,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,7 +1085,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1115,7 +1106,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,10 +1116,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1147,10 +1138,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,17 +1163,17 @@
     <xf numFmtId="14" fontId="0" fillId="18" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="19" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="20" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1236,7 +1227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1623,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C050714-3696-452D-B399-E638651227F0}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I22" sqref="A22:I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,50 +1630,94 @@
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7">
+        <v>125000</v>
+      </c>
+      <c r="F2" s="7">
+        <f>C2*E2</f>
+        <v>125000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>150000</v>
+      </c>
+      <c r="H2" s="6">
+        <f>G2-E2</f>
+        <v>25000</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>27</v>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <v>50000</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F18" si="0">C3*E3</f>
+        <v>50000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>70000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H19" si="1">G3-E3</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1691,26 +1726,26 @@
         <v>14</v>
       </c>
       <c r="E4" s="7">
-        <v>125000</v>
+        <v>70000</v>
       </c>
       <c r="F4" s="7">
-        <f>C4*E4</f>
-        <v>125000</v>
+        <f t="shared" si="0"/>
+        <v>70000</v>
       </c>
       <c r="G4" s="7">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H4" s="6">
-        <f>G4-E4</f>
-        <v>25000</v>
+        <f t="shared" si="1"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1719,54 +1754,54 @@
         <v>14</v>
       </c>
       <c r="E5" s="7">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" ref="F5:F20" si="0">C5*E5</f>
-        <v>50000</v>
+        <f t="shared" si="0"/>
+        <v>55000</v>
       </c>
       <c r="G5" s="7">
-        <v>70000</v>
+        <v>75000</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H21" si="1">G5-E5</f>
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="7">
-        <v>70000</v>
+        <v>40000</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="G6" s="7">
-        <v>100000</v>
+        <v>55000</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1775,138 +1810,138 @@
         <v>14</v>
       </c>
       <c r="E7" s="7">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="G7" s="7">
-        <v>75000</v>
+        <v>65000</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="7">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="G8" s="7">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G9" s="7">
-        <v>65000</v>
+        <v>150000</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="7">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G10" s="7">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="7">
-        <v>100000</v>
+        <v>30000</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>90000</v>
       </c>
       <c r="G11" s="7">
-        <v>150000</v>
+        <v>40000</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -1915,194 +1950,194 @@
         <v>14</v>
       </c>
       <c r="E12" s="7">
-        <v>25000</v>
+        <v>65000</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>130000</v>
       </c>
       <c r="G12" s="7">
-        <v>35000</v>
+        <v>85000</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7">
-        <v>30000</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>90000</v>
-      </c>
-      <c r="G13" s="7">
-        <v>40000</v>
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>300000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>180000</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7">
-        <v>65000</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>130000</v>
-      </c>
-      <c r="G14" s="7">
-        <v>85000</v>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8">
+        <v>250000</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>500000</v>
+      </c>
+      <c r="G14" s="8">
+        <v>300000</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E15" s="8">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>25000</v>
       </c>
       <c r="G15" s="8">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="8">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>500000</v>
+        <v>35000</v>
       </c>
       <c r="G16" s="8">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>50000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1</v>
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8">
-        <v>25000</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>25000</v>
-      </c>
-      <c r="G17" s="8">
-        <v>40000</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45000</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="G17" s="6">
+        <v>55000</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="8">
-        <v>35000</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>35000</v>
-      </c>
-      <c r="G18" s="8">
-        <v>50000</v>
+      <c r="E18" s="6">
+        <v>55000</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>110000</v>
+      </c>
+      <c r="G18" s="6">
+        <v>65000</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -2111,130 +2146,94 @@
         <v>14</v>
       </c>
       <c r="E19" s="6">
-        <v>45000</v>
+        <v>47000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>90000</v>
+        <v>116000</v>
       </c>
       <c r="G19" s="6">
-        <v>55000</v>
+        <v>68000</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>305</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E20" s="6">
-        <v>55000</v>
+        <v>2000</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="0"/>
-        <v>110000</v>
+        <f>C20*E20</f>
+        <v>610000</v>
       </c>
       <c r="G20" s="6">
-        <v>65000</v>
+        <v>4000</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>10000</v>
+        <f>C20*E20</f>
+        <v>610000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="6">
-        <v>47000</v>
+        <v>800000</v>
       </c>
       <c r="F21" s="6">
-        <v>116000</v>
+        <f>C21*E21</f>
+        <v>800000</v>
       </c>
       <c r="G21" s="6">
-        <v>68000</v>
+        <v>850000</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>21000</v>
+        <f>G21-E21</f>
+        <v>50000</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="3">
-        <v>305</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="6">
-        <f>C22*E22</f>
-        <v>610000</v>
-      </c>
-      <c r="G22" s="6">
-        <v>4000</v>
-      </c>
-      <c r="H22" s="6">
-        <f>C22*E22</f>
-        <v>610000</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="6">
-        <v>800000</v>
-      </c>
-      <c r="F23" s="6">
-        <f>C23*E23</f>
-        <v>800000</v>
-      </c>
-      <c r="G23" s="6">
-        <v>850000</v>
-      </c>
-      <c r="H23" s="6">
-        <f>G23-E23</f>
-        <v>50000</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -2287,53 +2286,32 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="11">
-        <f>SUM(E4:E30)</f>
+      <c r="A29" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="11">
+        <f>SUM(E2:E28)</f>
         <v>2029000</v>
       </c>
-      <c r="F31" s="11">
-        <f>SUM(F4:F30)</f>
+      <c r="F29" s="11">
+        <f>SUM(F2:F28)</f>
         <v>3416000</v>
       </c>
-      <c r="G31" s="11">
-        <f>SUM(G4:G30)</f>
+      <c r="G29" s="11">
+        <f>SUM(G2:G28)</f>
         <v>2452000</v>
       </c>
-      <c r="H31" s="11">
-        <f>SUM(H4:H30)</f>
+      <c r="H29" s="11">
+        <f>SUM(H2:H28)</f>
         <v>1031000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2360,7 +2338,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2368,31 +2346,31 @@
         <v>0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="85" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K3" s="88"/>
     </row>
@@ -2407,10 +2385,10 @@
       <c r="H4" s="86"/>
       <c r="I4" s="86"/>
       <c r="J4" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2418,10 +2396,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -2452,10 +2430,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -2464,7 +2442,7 @@
         <v>5000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" s="6">
         <v>50000</v>
@@ -2484,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -2496,7 +2474,7 @@
         <v>10000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" ref="G7:G21" si="0">D7*E7</f>
@@ -2518,10 +2496,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -2550,10 +2528,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -2582,10 +2560,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -2594,7 +2572,7 @@
         <v>10000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
@@ -2615,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="3">
         <v>3</v>
@@ -2627,7 +2605,7 @@
         <v>10000</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
@@ -2648,10 +2626,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2681,10 +2659,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -2714,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -2748,10 +2726,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -2780,10 +2758,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -2812,10 +2790,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -2844,10 +2822,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2856,7 +2834,7 @@
         <v>10000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
@@ -2876,10 +2854,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -2888,7 +2866,7 @@
         <v>4000</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
@@ -2908,10 +2886,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2920,7 +2898,7 @@
         <v>10000</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
@@ -2940,10 +2918,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -2970,7 +2948,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="90"/>
       <c r="C22" s="90"/>
@@ -2991,17 +2969,17 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3023,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,28 +3031,28 @@
         <v>0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="85" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3091,7 +3069,7 @@
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -3115,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -3127,7 +3105,7 @@
         <v>5000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G6" s="6">
         <v>50000</v>
@@ -3154,7 +3132,7 @@
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -3178,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -3208,10 +3186,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3">
         <v>2</v>
@@ -3220,7 +3198,7 @@
         <v>4000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G10" s="6">
         <f>D10*E10</f>
@@ -3247,7 +3225,7 @@
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
@@ -3282,7 +3260,7 @@
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
@@ -3306,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -3335,10 +3313,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -3364,10 +3342,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -3402,7 +3380,7 @@
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
@@ -3437,7 +3415,7 @@
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -3461,10 +3439,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -3473,7 +3451,7 @@
         <v>10000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G24" s="6">
         <f>D24*E24</f>
@@ -3493,10 +3471,10 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -3505,7 +3483,7 @@
         <v>10000</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:G28" si="4">D25*E25</f>
@@ -3525,10 +3503,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D26" s="3">
         <v>3</v>
@@ -3537,7 +3515,7 @@
         <v>10000</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="4"/>
@@ -3557,10 +3535,10 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -3569,7 +3547,7 @@
         <v>10000</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="4"/>
@@ -3589,10 +3567,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -3601,7 +3579,7 @@
         <v>10000</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="4"/>
@@ -3630,7 +3608,7 @@
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="32"/>
@@ -3665,7 +3643,7 @@
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -3689,10 +3667,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -3721,10 +3699,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -3752,10 +3730,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -3783,10 +3761,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -3815,10 +3793,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -3845,10 +3823,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -3884,7 +3862,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="90"/>
       <c r="C41" s="90"/>
@@ -3906,46 +3884,46 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H44" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H48" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3989,12 +3967,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4002,13 +3980,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="85" t="s">
         <v>5</v>
@@ -4017,16 +3995,16 @@
         <v>13</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="85" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="98" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4044,7 +4022,7 @@
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="32"/>
@@ -4084,7 +4062,7 @@
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -4100,7 +4078,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C9" s="39">
         <v>44959</v>
@@ -4124,7 +4102,7 @@
         <v>50000</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4132,7 +4110,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10" s="39">
         <v>44959</v>
@@ -4156,7 +4134,7 @@
         <v>50000</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4164,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11" s="41">
         <v>45079</v>
@@ -4195,7 +4173,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" s="73">
         <v>45109</v>
@@ -4226,10 +4204,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -4281,7 +4259,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="93"/>
       <c r="C16" s="93"/>
@@ -4305,7 +4283,7 @@
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
@@ -4321,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C18" s="76">
         <v>44987</v>
@@ -4333,7 +4311,7 @@
         <v>15000</v>
       </c>
       <c r="F18" s="77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G18" s="78">
         <v>8025000</v>
@@ -4346,7 +4324,7 @@
         <v>1203750</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -4387,7 +4365,7 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" s="96"/>
       <c r="C22" s="96"/>
@@ -4411,7 +4389,7 @@
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
@@ -4427,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C24" s="39">
         <v>45079</v>
@@ -4459,7 +4437,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C25" s="42">
         <v>45109</v>
@@ -4491,7 +4469,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C26" s="51">
         <v>45171</v>
@@ -4523,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C27" s="51">
         <v>45171</v>
@@ -4555,10 +4533,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D28" s="43">
         <v>1</v>
@@ -4587,10 +4565,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" s="43">
         <v>2</v>
@@ -4619,10 +4597,10 @@
         <v>7</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C30" s="65" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D30" s="43">
         <v>1</v>
@@ -4662,7 +4640,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
@@ -4686,7 +4664,7 @@
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C33" s="32"/>
       <c r="D33" s="32"/>
@@ -4724,7 +4702,7 @@
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" s="32"/>
       <c r="D36" s="32"/>
@@ -4740,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C37" s="39">
         <v>44928</v>
@@ -4752,7 +4730,7 @@
         <v>10000</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G37" s="6">
         <f>D37*E37</f>
@@ -4773,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C38" s="47">
         <v>44959</v>
@@ -4785,7 +4763,7 @@
         <v>10000</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" ref="G38:G53" si="2">D38*E38</f>
@@ -4800,7 +4778,7 @@
         <v>1500</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -4808,7 +4786,7 @@
         <v>3</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C39" s="48">
         <v>45079</v>
@@ -4820,7 +4798,7 @@
         <v>10000</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="2"/>
@@ -4841,7 +4819,7 @@
         <v>4</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C40" s="48">
         <v>45079</v>
@@ -4853,7 +4831,7 @@
         <v>10000</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="2"/>
@@ -4874,7 +4852,7 @@
         <v>5</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C41" s="48">
         <v>45079</v>
@@ -4886,7 +4864,7 @@
         <v>15000</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="2"/>
@@ -4907,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C42" s="49">
         <v>45109</v>
@@ -4919,7 +4897,7 @@
         <v>10000</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G42" s="46">
         <f t="shared" si="2"/>
@@ -4940,7 +4918,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="49">
         <v>45109</v>
@@ -4952,7 +4930,7 @@
         <v>10000</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G43" s="46">
         <f t="shared" si="2"/>
@@ -4971,7 +4949,7 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C44" s="70">
         <v>45140</v>
@@ -4983,7 +4961,7 @@
         <v>10000</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G44" s="46">
         <f t="shared" si="2"/>
@@ -5002,7 +4980,7 @@
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C45" s="70">
         <v>45140</v>
@@ -5014,7 +4992,7 @@
         <v>10000</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G45" s="46">
         <f t="shared" si="2"/>
@@ -5035,7 +5013,7 @@
         <v>8</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C46" s="52">
         <v>45171</v>
@@ -5047,7 +5025,7 @@
         <v>10000</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G46" s="46">
         <f t="shared" si="2"/>
@@ -5068,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="53">
         <v>45201</v>
@@ -5080,7 +5058,7 @@
         <v>15000</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G47" s="46">
         <f t="shared" si="2"/>
@@ -5101,10 +5079,10 @@
         <v>10</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D48" s="43">
         <v>6</v>
@@ -5113,7 +5091,7 @@
         <v>10000</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G48" s="46">
         <f t="shared" si="2"/>
@@ -5134,10 +5112,10 @@
         <v>11</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D49" s="43">
         <v>1</v>
@@ -5146,7 +5124,7 @@
         <v>15000</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G49" s="46">
         <f t="shared" si="2"/>
@@ -5167,10 +5145,10 @@
         <v>12</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D50" s="43">
         <v>1</v>
@@ -5179,7 +5157,7 @@
         <v>5000</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G50" s="46">
         <f t="shared" si="2"/>
@@ -5200,10 +5178,10 @@
         <v>13</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D51" s="43">
         <v>1</v>
@@ -5212,7 +5190,7 @@
         <v>10000</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G51" s="46">
         <f t="shared" si="2"/>
@@ -5233,10 +5211,10 @@
         <v>14</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D52" s="43">
         <v>5</v>
@@ -5245,7 +5223,7 @@
         <v>10000</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G52" s="46">
         <f t="shared" si="2"/>
@@ -5266,10 +5244,10 @@
         <v>15</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D53" s="43">
         <v>1</v>
@@ -5278,7 +5256,7 @@
         <v>18000</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G53" s="46">
         <f t="shared" si="2"/>
@@ -5336,7 +5314,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B57" s="96"/>
       <c r="C57" s="96"/>
@@ -5360,7 +5338,7 @@
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C58" s="32"/>
       <c r="D58" s="32"/>
@@ -5398,7 +5376,7 @@
     <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C61" s="32"/>
       <c r="D61" s="32"/>
@@ -5414,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C62" s="39">
         <v>44928</v>
@@ -5447,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C63" s="42">
         <v>44959</v>
@@ -5480,7 +5458,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C64" s="51">
         <v>45079</v>
@@ -5513,7 +5491,7 @@
         <v>4</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C65" s="51">
         <v>45079</v>
@@ -5546,7 +5524,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C66" s="51">
         <v>45079</v>
@@ -5579,7 +5557,7 @@
         <v>6</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C67" s="51">
         <v>45079</v>
@@ -5612,7 +5590,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C68" s="51">
         <v>45079</v>
@@ -5645,7 +5623,7 @@
         <v>8</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C69" s="50">
         <v>45109</v>
@@ -5678,7 +5656,7 @@
         <v>9</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C70" s="50">
         <v>45109</v>
@@ -5711,7 +5689,7 @@
         <v>10</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C71" s="42">
         <v>45140</v>
@@ -5744,7 +5722,7 @@
         <v>11</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C72" s="42">
         <v>45140</v>
@@ -5777,7 +5755,7 @@
         <v>12</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C73" s="42">
         <v>45140</v>
@@ -5810,7 +5788,7 @@
         <v>13</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C74" s="42">
         <v>45140</v>
@@ -5843,10 +5821,10 @@
         <v>14</v>
       </c>
       <c r="B75" s="67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C75" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D75" s="43">
         <v>3</v>
@@ -5876,10 +5854,10 @@
         <v>15</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C76" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D76" s="43">
         <v>1</v>
@@ -5909,10 +5887,10 @@
         <v>16</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D77" s="3">
         <v>1</v>
@@ -5942,10 +5920,10 @@
         <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D78" s="59">
         <v>1</v>
@@ -5975,10 +5953,10 @@
         <v>18</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C79" s="68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D79" s="3">
         <v>1</v>
@@ -6008,10 +5986,10 @@
         <v>19</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C80" s="68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D80" s="3">
         <v>4</v>
@@ -6041,10 +6019,10 @@
         <v>20</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C81" s="68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D81" s="3">
         <v>1</v>
@@ -6095,7 +6073,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B84" s="93"/>
       <c r="C84" s="93"/>
@@ -6118,7 +6096,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="90"/>
       <c r="C85" s="90"/>
@@ -6132,46 +6110,46 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H87" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6201,10 +6179,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3157D330-9FE9-46EF-8F26-5A01FC06A7EE}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6218,112 +6196,161 @@
     <col min="9" max="9" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="6">
+        <f>F2-0.15*F2</f>
+        <v>276250</v>
+      </c>
+      <c r="F2" s="6">
+        <v>325000</v>
+      </c>
+      <c r="G2" s="6">
+        <f>C2*E2</f>
+        <v>552500</v>
+      </c>
+      <c r="H2" s="6">
+        <f>C2*E2</f>
+        <v>552500</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>205</v>
-      </c>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E18" si="0">F3-0.15*F3</f>
+        <v>29750</v>
+      </c>
+      <c r="F3" s="6">
+        <v>35000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G18" si="1">C3*E3</f>
+        <v>505750</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H18" si="2">C3*E3</f>
+        <v>505750</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E4" s="6">
-        <f>F4-0.15*F4</f>
-        <v>276250</v>
+        <f t="shared" si="0"/>
+        <v>42500</v>
       </c>
       <c r="F4" s="6">
-        <v>325000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="6">
-        <f>C4*E4</f>
-        <v>552500</v>
+        <f t="shared" si="1"/>
+        <v>170000</v>
       </c>
       <c r="H4" s="6">
-        <f>C4*E4</f>
-        <v>552500</v>
+        <f t="shared" si="2"/>
+        <v>170000</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E20" si="0">F5-0.15*F5</f>
-        <v>29750</v>
+        <f t="shared" si="0"/>
+        <v>21250</v>
       </c>
       <c r="F5" s="6">
-        <v>35000</v>
+        <v>25000</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G20" si="1">C5*E5</f>
-        <v>505750</v>
+        <f t="shared" si="1"/>
+        <v>425000</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" ref="H5:H20" si="2">C5*E5</f>
-        <v>505750</v>
+        <f t="shared" si="2"/>
+        <v>425000</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -6333,147 +6360,147 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>42500</v>
+        <v>297500</v>
       </c>
       <c r="F6" s="6">
-        <v>50000</v>
+        <v>350000</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>170000</v>
+        <v>1190000</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="2"/>
-        <v>170000</v>
+        <v>1190000</v>
       </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>21250</v>
+        <v>446250</v>
       </c>
       <c r="F7" s="6">
-        <v>25000</v>
+        <v>525000</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>425000</v>
+        <v>1338750</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="2"/>
-        <v>425000</v>
+        <v>1338750</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>297500</v>
+        <v>276250</v>
       </c>
       <c r="F8" s="6">
-        <v>350000</v>
+        <v>325000</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>1190000</v>
+        <v>3315000</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="2"/>
-        <v>1190000</v>
+        <v>3315000</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>446250</v>
+        <v>297500</v>
       </c>
       <c r="F9" s="6">
-        <v>525000</v>
+        <v>350000</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>1338750</v>
+        <v>297500</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="2"/>
-        <v>1338750</v>
+        <v>297500</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>276250</v>
+        <v>5695000</v>
       </c>
       <c r="F10" s="6">
-        <v>325000</v>
+        <v>6700000</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>3315000</v>
+        <v>5695000</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="2"/>
-        <v>3315000</v>
+        <v>5695000</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -6483,24 +6510,24 @@
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>297500</v>
+        <v>1428000</v>
       </c>
       <c r="F11" s="6">
-        <v>350000</v>
+        <v>1680000</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>297500</v>
+        <v>1428000</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="2"/>
-        <v>297500</v>
+        <v>1428000</v>
       </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>90</v>
@@ -6513,27 +6540,27 @@
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>5695000</v>
+        <v>361250</v>
       </c>
       <c r="F12" s="6">
-        <v>6700000</v>
+        <v>425000</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>5695000</v>
+        <v>361250</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="2"/>
-        <v>5695000</v>
+        <v>361250</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -6543,27 +6570,27 @@
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>1428000</v>
+        <v>3612500</v>
       </c>
       <c r="F13" s="6">
-        <v>1680000</v>
+        <v>4250000</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>1428000</v>
+        <v>3612500</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="2"/>
-        <v>1428000</v>
+        <v>3612500</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -6573,87 +6600,87 @@
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>361250</v>
+        <v>212500</v>
       </c>
       <c r="F14" s="6">
-        <v>425000</v>
+        <v>250000</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>361250</v>
+        <v>212500</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="2"/>
-        <v>361250</v>
+        <v>212500</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>3612500</v>
+        <v>55250</v>
       </c>
       <c r="F15" s="6">
-        <v>4250000</v>
+        <v>65000</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>3612500</v>
+        <v>110500</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="2"/>
-        <v>3612500</v>
+        <v>110500</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>212500</v>
+        <v>29750</v>
       </c>
       <c r="F16" s="6">
-        <v>250000</v>
+        <v>35000</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>212500</v>
+        <v>238000</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>212500</v>
+        <v>238000</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -6663,114 +6690,80 @@
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>55250</v>
+        <v>29750</v>
       </c>
       <c r="F17" s="6">
-        <v>65000</v>
+        <v>35000</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>110500</v>
+        <v>59500</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>110500</v>
+        <v>59500</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C18" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>29750</v>
+        <v>318750</v>
       </c>
       <c r="F18" s="6">
-        <v>35000</v>
+        <v>375000</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>238000</v>
+        <v>637500</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>238000</v>
+        <v>637500</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>16</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>29750</v>
-      </c>
-      <c r="F19" s="6">
-        <v>35000</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>59500</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>59500</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>318750</v>
-      </c>
-      <c r="F20" s="6">
-        <v>375000</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>637500</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="2"/>
-        <v>637500</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
@@ -6783,7 +6776,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
@@ -6796,7 +6789,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
@@ -6809,7 +6802,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
@@ -6822,7 +6815,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -6835,7 +6828,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
@@ -6848,7 +6841,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
@@ -6861,7 +6854,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
@@ -6874,7 +6867,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
@@ -6887,7 +6880,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
@@ -6900,7 +6893,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
@@ -6913,7 +6906,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
@@ -6926,7 +6919,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -6939,7 +6932,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
@@ -6952,7 +6945,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
@@ -6965,7 +6958,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
@@ -6978,7 +6971,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
@@ -6991,7 +6984,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
@@ -7004,7 +6997,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -7017,7 +7010,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -7030,7 +7023,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -7043,7 +7036,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -7056,7 +7049,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -7069,7 +7062,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -7082,7 +7075,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -7095,7 +7088,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -7107,58 +7100,29 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>44</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="11">
+        <f>SUM(E2:E46)</f>
+        <v>13430000</v>
+      </c>
+      <c r="F47" s="11">
+        <f>SUM(F2:F46)</f>
+        <v>15800000</v>
+      </c>
+      <c r="G47" s="11">
+        <f>SUM(G2:G46)</f>
+        <v>20149250</v>
+      </c>
+      <c r="H47" s="11">
+        <f>SUM(H2:H46)</f>
+        <v>20149250</v>
+      </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
-        <v>45</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="11">
-        <f>SUM(E4:E48)</f>
-        <v>13430000</v>
-      </c>
-      <c r="F49" s="11">
-        <f>SUM(F4:F48)</f>
-        <v>15800000</v>
-      </c>
-      <c r="G49" s="11">
-        <f>SUM(G4:G48)</f>
-        <v>20149250</v>
-      </c>
-      <c r="H49" s="11">
-        <f>SUM(H4:H48)</f>
-        <v>20149250</v>
-      </c>
-      <c r="I49" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7185,7 +7149,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -7204,7 +7168,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>2</v>
@@ -7219,10 +7183,10 @@
         <v>5</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -7230,10 +7194,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -7262,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -7294,10 +7258,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3">
         <v>8</v>
@@ -7326,10 +7290,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D7" s="3">
         <v>4</v>
@@ -7358,10 +7322,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D8" s="3">
         <v>5</v>
@@ -7390,10 +7354,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D9" s="3">
         <v>4</v>
@@ -7422,10 +7386,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -7454,10 +7418,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -7486,10 +7450,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -7518,10 +7482,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -7550,10 +7514,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -7582,10 +7546,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -7614,10 +7578,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -7646,10 +7610,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D17" s="9">
         <v>1</v>
@@ -7678,10 +7642,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D18" s="9">
         <v>1</v>
@@ -7710,10 +7674,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -7742,10 +7706,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D20" s="9">
         <v>1</v>
@@ -7774,10 +7738,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -7806,10 +7770,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -7838,10 +7802,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -7870,10 +7834,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -7902,10 +7866,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -7934,10 +7898,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -7966,10 +7930,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -7998,10 +7962,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
@@ -8030,10 +7994,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D29" s="3">
         <v>3</v>
@@ -8062,10 +8026,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -8094,10 +8058,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D31" s="3">
         <v>5</v>
@@ -8126,10 +8090,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D32" s="3">
         <v>2</v>
@@ -8158,10 +8122,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -8190,10 +8154,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -8222,7 +8186,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C35" s="25">
         <v>44987</v>
@@ -8254,7 +8218,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C36" s="25">
         <v>44987</v>
@@ -8286,7 +8250,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" s="25">
         <v>45109</v>
@@ -9249,10 +9213,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B989E19A-15E2-46DD-A7F4-C619CB67A42F}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9264,141 +9228,179 @@
     <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>25000</v>
+      </c>
+      <c r="G2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="6">
+        <f>C2*G3</f>
+        <v>15000</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="15" t="s">
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>57</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="6">
+        <f>C3*G3</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="6">
-        <v>20000</v>
+        <v>150000</v>
       </c>
       <c r="F4" s="6">
-        <v>25000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5000</v>
-      </c>
+        <v>175000</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <f>C4*G5</f>
-        <v>15000</v>
+        <f t="shared" ref="H4:H12" si="0">C4*G4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C5" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="6">
-        <v>10000</v>
+        <v>22000</v>
       </c>
       <c r="F5" s="6">
-        <v>13000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>3000</v>
-      </c>
+        <v>25000</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6">
-        <f>C5*G5</f>
-        <v>30000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6">
-        <v>150000</v>
+        <v>3000</v>
       </c>
       <c r="F6" s="6">
-        <v>175000</v>
+        <v>5000</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H14" si="0">C6*G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C7" s="3">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6">
-        <v>22000</v>
+        <v>500</v>
       </c>
       <c r="F7" s="6">
-        <v>25000</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6">
@@ -9408,22 +9410,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="6">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="6">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
@@ -9433,22 +9435,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C9" s="3">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="6">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="F9" s="6">
-        <v>1000</v>
+        <v>35000</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
@@ -9458,22 +9460,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="6">
-        <v>5000</v>
+        <v>55000</v>
       </c>
       <c r="F10" s="6">
-        <v>7000</v>
+        <v>70000</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6">
@@ -9483,22 +9485,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="6">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="F11" s="6">
-        <v>35000</v>
+        <v>13000</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6">
@@ -9508,22 +9510,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="F12" s="6">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6">
@@ -9533,57 +9535,31 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="F13" s="6">
-        <v>13000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6">
-        <v>15000</v>
-      </c>
-      <c r="F14" s="6">
-        <v>20000</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -9595,56 +9571,29 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="6">
-        <f>SUM(E4:E17)</f>
+      <c r="E16" s="6">
+        <f>SUM(E2:E15)</f>
         <v>320500</v>
       </c>
-      <c r="F18" s="6">
-        <f>SUM(F4:F17)</f>
+      <c r="F16" s="6">
+        <f>SUM(F2:F15)</f>
         <v>389000</v>
       </c>
-      <c r="G18" s="6">
-        <f>SUM(G4:G17)</f>
+      <c r="G16" s="6">
+        <f>SUM(G2:G15)</f>
         <v>8000</v>
       </c>
-      <c r="H18" s="6">
-        <f>SUM(H4:H17)</f>
+      <c r="H16" s="6">
+        <f>SUM(H2:H15)</f>
         <v>45000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9654,7 +9603,7 @@
   <dimension ref="A1:H78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9668,7 +9617,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -9698,10 +9647,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9709,13 +9658,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3">
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6">
         <v>10000</v>
@@ -9729,13 +9678,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="6">
         <v>10000</v>
@@ -9749,13 +9698,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="6">
         <v>10000</v>
@@ -9769,13 +9718,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6">
         <v>10000</v>
@@ -9789,13 +9738,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3">
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="6">
         <v>10000</v>
@@ -9809,13 +9758,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="3">
         <v>19</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="6">
         <v>5000</v>
@@ -9829,13 +9778,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="6">
         <v>5000</v>
@@ -9849,13 +9798,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="6">
         <v>10000</v>
@@ -9869,13 +9818,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="6">
         <v>5000</v>
@@ -9889,13 +9838,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="6">
         <v>15000</v>
@@ -9909,13 +9858,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="6">
         <v>5000</v>
@@ -9929,13 +9878,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="6">
         <v>12000</v>
@@ -10726,7 +10675,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -10756,10 +10705,10 @@
         <v>5</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -10767,7 +10716,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="3">
         <v>17</v>
@@ -10787,7 +10736,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3">
         <v>8</v>
@@ -10807,7 +10756,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -10827,7 +10776,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3">
         <v>29</v>
@@ -10986,7 +10935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D4B3E3-9C80-4885-801E-00A5BDCA6C8C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -11014,7 +10963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4E24F6-8BEC-4FC8-BCE5-76B0610158A0}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -11030,7 +10979,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -11046,25 +10995,25 @@
         <v>0</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" s="85" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="87" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I3" s="88"/>
     </row>
@@ -11077,10 +11026,10 @@
       <c r="F4" s="86"/>
       <c r="G4" s="86"/>
       <c r="H4" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -11088,10 +11037,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3">
         <v>36</v>
@@ -11100,7 +11049,7 @@
         <v>15000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G5" s="6">
         <f>D5*E5</f>
@@ -11114,10 +11063,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="3">
         <v>32</v>
@@ -11126,7 +11075,7 @@
         <v>15000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" ref="G6:G22" si="0">D6*E6</f>
@@ -11140,10 +11089,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D7" s="3">
         <v>34</v>
@@ -11152,7 +11101,7 @@
         <v>15000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
@@ -11166,10 +11115,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" s="3">
         <v>29</v>
@@ -11178,7 +11127,7 @@
         <v>15000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
@@ -11192,10 +11141,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3">
         <v>36</v>
@@ -11204,7 +11153,7 @@
         <v>15000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
@@ -11218,10 +11167,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -11230,7 +11179,7 @@
         <v>15000</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
@@ -11244,10 +11193,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="3">
         <v>34</v>
@@ -11256,7 +11205,7 @@
         <v>15000</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
@@ -11270,10 +11219,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3">
         <v>31</v>
@@ -11282,7 +11231,7 @@
         <v>15000</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
@@ -11296,10 +11245,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" s="3">
         <v>36</v>
@@ -11308,7 +11257,7 @@
         <v>15000</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
@@ -11322,7 +11271,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" s="25">
         <v>44928</v>
@@ -11334,7 +11283,7 @@
         <v>15000</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
@@ -11348,7 +11297,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="25">
         <v>44928</v>
@@ -11360,7 +11309,7 @@
         <v>15000</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
@@ -11374,7 +11323,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="25">
         <v>44928</v>
@@ -11386,7 +11335,7 @@
         <v>15000</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
@@ -11400,7 +11349,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" s="25">
         <v>44928</v>
@@ -11412,7 +11361,7 @@
         <v>15000</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
@@ -11426,7 +11375,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C18" s="25">
         <v>44959</v>
@@ -11438,7 +11387,7 @@
         <v>15000</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
@@ -11452,7 +11401,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C19" s="25">
         <v>44959</v>
@@ -11464,7 +11413,7 @@
         <v>15000</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
@@ -11478,7 +11427,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C20" s="25">
         <v>44959</v>
@@ -11490,7 +11439,7 @@
         <v>15000</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
@@ -11504,7 +11453,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C21" s="25">
         <v>44959</v>
@@ -11516,7 +11465,7 @@
         <v>15000</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
@@ -11530,7 +11479,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C22" s="25">
         <v>44987</v>
@@ -11542,7 +11491,7 @@
         <v>15000</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
